--- a/results_others.xlsx
+++ b/results_others.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="results_others" sheetId="1" r:id="rId1"/>
@@ -22,51 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="15">
-  <si>
-    <t>Tournament</t>
-  </si>
-  <si>
-    <t>Group10</t>
-  </si>
-  <si>
-    <t>Group11</t>
-  </si>
-  <si>
-    <t>Group1</t>
-  </si>
-  <si>
-    <t>Group2</t>
-  </si>
-  <si>
-    <t>Group3</t>
-  </si>
-  <si>
-    <t>Group4</t>
-  </si>
-  <si>
-    <t>Group5</t>
-  </si>
-  <si>
-    <t>Group6</t>
-  </si>
-  <si>
-    <t>Group7</t>
-  </si>
-  <si>
-    <t>Group8</t>
-  </si>
-  <si>
-    <t>Group name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t>Average Utility</t>
   </si>
   <si>
-    <t>Standard Deviation</t>
+    <t>Social Welfare</t>
   </si>
   <si>
-    <t>Social Welfare</t>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -599,14 +569,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -884,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,42 +867,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0.97061799999999998</v>
@@ -947,8 +910,8 @@
       <c r="D2">
         <v>4.8537625726712698E-2</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
+      <c r="E2">
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0.922241166666666</v>
@@ -956,8 +919,8 @@
       <c r="G2">
         <v>0.122546022722308</v>
       </c>
-      <c r="H2" t="s">
-        <v>1</v>
+      <c r="H2">
+        <v>10</v>
       </c>
       <c r="I2">
         <v>0.89218799999999998</v>
@@ -970,8 +933,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.83596000000000004</v>
@@ -979,8 +942,8 @@
       <c r="D3">
         <v>7.3197351345986497E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.75150916666666701</v>
@@ -988,8 +951,8 @@
       <c r="G3">
         <v>8.9330753796607196E-2</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
+      <c r="H3">
+        <v>11</v>
       </c>
       <c r="I3">
         <v>0.67193516666666697</v>
@@ -1002,8 +965,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0.84287350000000005</v>
@@ -1011,8 +974,8 @@
       <c r="D4">
         <v>6.6696241904267303E-2</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0.5234065</v>
@@ -1020,8 +983,8 @@
       <c r="G4">
         <v>0.127386958673503</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
+      <c r="H4">
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0.50179033333333301</v>
@@ -1034,8 +997,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0.89617633333333402</v>
@@ -1043,8 +1006,8 @@
       <c r="D5">
         <v>7.4354108613334996E-2</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5" s="2">
         <v>0.904891</v>
@@ -1052,8 +1015,8 @@
       <c r="G5">
         <v>7.8182843640155597E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
+      <c r="H5">
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0.89561333333333404</v>
@@ -1066,8 +1029,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>0.90745799999999999</v>
@@ -1075,8 +1038,8 @@
       <c r="D6">
         <v>9.5499533529786296E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0.77776500000000004</v>
@@ -1084,8 +1047,8 @@
       <c r="G6">
         <v>0.123629259666807</v>
       </c>
-      <c r="H6" t="s">
-        <v>7</v>
+      <c r="H6">
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0.77146183333333296</v>
@@ -1098,8 +1061,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0.74375666666666695</v>
@@ -1107,8 +1070,8 @@
       <c r="D7">
         <v>0.25022494838063303</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0.69268949999999996</v>
@@ -1116,8 +1079,8 @@
       <c r="G7">
         <v>0.25097673987993901</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
+      <c r="H7">
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0.62442633333333297</v>
@@ -1130,8 +1093,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0.72911400000000004</v>
@@ -1139,8 +1102,8 @@
       <c r="D8">
         <v>0.112470280054747</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0.455698833333333</v>
@@ -1148,8 +1111,8 @@
       <c r="G8">
         <v>0.20237238545199601</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="I8">
         <v>0.64403633333333299</v>
@@ -1162,8 +1125,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>0.79629983333333298</v>
@@ -1171,8 +1134,8 @@
       <c r="D9">
         <v>3.4087235718884598E-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0.57796966666666705</v>
@@ -1180,8 +1143,8 @@
       <c r="G9">
         <v>9.4050500948695506E-2</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
+      <c r="H9">
+        <v>8</v>
       </c>
       <c r="I9">
         <v>0.58133550000000001</v>
@@ -1194,8 +1157,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0.96648500000000004</v>
@@ -1203,8 +1166,8 @@
       <c r="D10">
         <v>4.82594768949011E-2</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
+      <c r="E10">
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0.93163333333333298</v>
@@ -1212,8 +1175,8 @@
       <c r="G10">
         <v>5.9724838164580303E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>1</v>
+      <c r="H10">
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0.91068833333333299</v>
@@ -1226,8 +1189,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1235,8 +1198,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.73643666666666596</v>
@@ -1244,8 +1207,8 @@
       <c r="G11">
         <v>0.27636650350555703</v>
       </c>
-      <c r="H11" t="s">
-        <v>2</v>
+      <c r="H11">
+        <v>11</v>
       </c>
       <c r="I11">
         <v>0.73643666666666596</v>
@@ -1258,8 +1221,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>0.80334283333333401</v>
@@ -1267,8 +1230,8 @@
       <c r="D12">
         <v>3.9392121172643499E-2</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
+      <c r="E12">
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0.66757183333333303</v>
@@ -1276,8 +1239,8 @@
       <c r="G12">
         <v>9.0518487174227197E-2</v>
       </c>
-      <c r="H12" t="s">
-        <v>6</v>
+      <c r="H12">
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0.70380733333333301</v>
@@ -1290,8 +1253,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>0.84308366666666601</v>
@@ -1299,8 +1262,8 @@
       <c r="D13">
         <v>6.7063966605295303E-2</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
+      <c r="E13">
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0.4939945</v>
@@ -1308,8 +1271,8 @@
       <c r="G13">
         <v>0.13708631163879501</v>
       </c>
-      <c r="H13" t="s">
-        <v>7</v>
+      <c r="H13">
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0.45390433333333302</v>
@@ -1322,8 +1285,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>0.88791116666666703</v>
@@ -1331,8 +1294,8 @@
       <c r="D14">
         <v>5.4818305061377602E-2</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0.78908149999999999</v>
@@ -1340,8 +1303,8 @@
       <c r="G14">
         <v>6.3452774880888699E-2</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
+      <c r="H14">
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0.81760983333333304</v>
@@ -1354,8 +1317,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>0.78543316666666696</v>
@@ -1363,8 +1326,8 @@
       <c r="D15">
         <v>5.4368406812171602E-2</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0.74545133333333302</v>
@@ -1372,8 +1335,8 @@
       <c r="G15">
         <v>7.1679460487779997E-2</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
+      <c r="H15">
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0.74639750000000005</v>
@@ -1386,8 +1349,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>0.848695166666667</v>
@@ -1395,8 +1358,8 @@
       <c r="D16">
         <v>6.0588051780989097E-2</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16">
         <v>0.71649700000000005</v>
@@ -1404,8 +1367,8 @@
       <c r="G16">
         <v>4.3666498514792498E-2</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
+      <c r="H16">
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0.55761666666666698</v>
@@ -1418,8 +1381,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>0.96444466666666695</v>
@@ -1427,8 +1390,8 @@
       <c r="D17">
         <v>3.5538440942629597E-2</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
+      <c r="E17">
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0.9424785</v>
@@ -1436,8 +1399,8 @@
       <c r="G17">
         <v>4.6373322942859202E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>1</v>
+      <c r="H17">
+        <v>10</v>
       </c>
       <c r="I17">
         <v>0.92172699999999996</v>
@@ -1450,8 +1413,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>0.91637033333333295</v>
@@ -1459,8 +1422,8 @@
       <c r="D18">
         <v>6.6979137504927302E-2</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0.821871666666667</v>
@@ -1468,8 +1431,8 @@
       <c r="G18">
         <v>0.12823024589884</v>
       </c>
-      <c r="H18" t="s">
-        <v>2</v>
+      <c r="H18">
+        <v>11</v>
       </c>
       <c r="I18">
         <v>0.72029816666666702</v>
@@ -1482,8 +1445,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1491,8 +1454,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="E19">
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0.505</v>
@@ -1500,8 +1463,8 @@
       <c r="G19">
         <v>0.16595894938615399</v>
       </c>
-      <c r="H19" t="s">
-        <v>7</v>
+      <c r="H19">
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0.505</v>
@@ -1514,8 +1477,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>0.91616883333333399</v>
@@ -1523,8 +1486,8 @@
       <c r="D20">
         <v>4.8853792875035197E-2</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0.89975016666666696</v>
@@ -1532,8 +1495,8 @@
       <c r="G20">
         <v>5.1435966526489303E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>8</v>
+      <c r="H20">
+        <v>6</v>
       </c>
       <c r="I20">
         <v>0.86304999999999998</v>
@@ -1546,8 +1509,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.79341883333333296</v>
@@ -1555,8 +1518,8 @@
       <c r="D21">
         <v>5.9854734491005E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0.72721683333333298</v>
@@ -1564,8 +1527,8 @@
       <c r="G21">
         <v>9.8067465959066999E-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
+      <c r="H21">
+        <v>7</v>
       </c>
       <c r="I21" s="2">
         <v>0.82516299999999998</v>
@@ -1578,8 +1541,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>0.80138549999999997</v>
@@ -1587,8 +1550,8 @@
       <c r="D22">
         <v>4.44837123658475E-2</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
+      <c r="E22">
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0.69738516666666694</v>
@@ -1596,8 +1559,8 @@
       <c r="G22">
         <v>0.113636849768882</v>
       </c>
-      <c r="H22" t="s">
-        <v>10</v>
+      <c r="H22">
+        <v>8</v>
       </c>
       <c r="I22">
         <v>0.52905849999999999</v>
@@ -1610,8 +1573,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>0.76859316666666599</v>
@@ -1619,8 +1582,8 @@
       <c r="D23">
         <v>0.108780576710474</v>
       </c>
-      <c r="E23" t="s">
-        <v>7</v>
+      <c r="E23">
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0.59085983333333303</v>
@@ -1628,8 +1591,8 @@
       <c r="G23">
         <v>0.14137747289559499</v>
       </c>
-      <c r="H23" t="s">
-        <v>1</v>
+      <c r="H23">
+        <v>10</v>
       </c>
       <c r="I23">
         <v>0.673905166666667</v>
@@ -1642,8 +1605,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>0.93835999999999997</v>
@@ -1651,8 +1614,8 @@
       <c r="D24">
         <v>6.0972733055614202E-2</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
+      <c r="E24">
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0.91331066666666705</v>
@@ -1660,8 +1623,8 @@
       <c r="G24">
         <v>7.3626086544695601E-2</v>
       </c>
-      <c r="H24" t="s">
-        <v>2</v>
+      <c r="H24">
+        <v>11</v>
       </c>
       <c r="I24">
         <v>0.83895716666666698</v>
@@ -1674,8 +1637,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>0.84209449999999997</v>
@@ -1683,8 +1646,8 @@
       <c r="D25">
         <v>5.3913013536244898E-2</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0.69746149999999996</v>
@@ -1692,8 +1655,8 @@
       <c r="G25">
         <v>0.17570071295134301</v>
       </c>
-      <c r="H25" t="s">
-        <v>8</v>
+      <c r="H25">
+        <v>6</v>
       </c>
       <c r="I25">
         <v>0.43145800000000001</v>
@@ -1706,8 +1669,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0.99489499999999997</v>
@@ -1715,8 +1678,8 @@
       <c r="D26">
         <v>1.1130443288414499E-2</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="F26" s="2">
         <v>0.99999166666666695</v>
@@ -1724,8 +1687,8 @@
       <c r="G26" s="1">
         <v>1.8148788694382E-5</v>
       </c>
-      <c r="H26" t="s">
-        <v>9</v>
+      <c r="H26">
+        <v>7</v>
       </c>
       <c r="I26">
         <v>0.99487016666666706</v>
@@ -1738,8 +1701,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>0.88754200000000005</v>
@@ -1747,8 +1710,8 @@
       <c r="D27">
         <v>6.0101590232493597E-2</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
+      <c r="E27">
+        <v>5</v>
       </c>
       <c r="F27">
         <v>0.6935635</v>
@@ -1756,8 +1719,8 @@
       <c r="G27">
         <v>0.117187583752919</v>
       </c>
-      <c r="H27" t="s">
-        <v>10</v>
+      <c r="H27">
+        <v>8</v>
       </c>
       <c r="I27">
         <v>0.63515983333333303</v>
@@ -1770,8 +1733,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>0.76676750000000005</v>
@@ -1779,8 +1742,8 @@
       <c r="D28">
         <v>6.1464090704950999E-2</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="F28">
         <v>0.59526216666666698</v>
@@ -1788,8 +1751,8 @@
       <c r="G28">
         <v>0.12385216549829001</v>
       </c>
-      <c r="H28" t="s">
-        <v>9</v>
+      <c r="H28">
+        <v>7</v>
       </c>
       <c r="I28">
         <v>0.72972783333333302</v>
@@ -1802,8 +1765,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>0.86025649999999998</v>
@@ -1811,8 +1774,8 @@
       <c r="D29">
         <v>4.2338064406770702E-2</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
+      <c r="E29">
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0.59397350000000004</v>
@@ -1820,8 +1783,8 @@
       <c r="G29">
         <v>6.3697674699463303E-2</v>
       </c>
-      <c r="H29" t="s">
-        <v>10</v>
+      <c r="H29">
+        <v>8</v>
       </c>
       <c r="I29">
         <v>0.58324266666666702</v>
@@ -1840,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,45 +1824,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0.93169716666666702</v>
@@ -1907,8 +1870,8 @@
       <c r="D2">
         <v>4.9943071424989299E-2</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0.83344133333333403</v>
@@ -1916,8 +1879,8 @@
       <c r="G2">
         <v>0.146638183947471</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
+      <c r="H2">
+        <v>11</v>
       </c>
       <c r="I2">
         <v>0.88876549999999999</v>
@@ -1934,8 +1897,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.94177366666666695</v>
@@ -1943,8 +1906,8 @@
       <c r="D3">
         <v>4.1574133253974299E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.84743250000000003</v>
@@ -1952,8 +1915,8 @@
       <c r="G3">
         <v>8.55060382370742E-2</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
+      <c r="H3">
+        <v>10</v>
       </c>
       <c r="I3">
         <v>0.81602399999999997</v>
@@ -1970,8 +1933,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0.92570966666666699</v>
@@ -1979,8 +1942,8 @@
       <c r="D4">
         <v>7.0496454700294905E-2</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0.91953283333333402</v>
@@ -1988,8 +1951,8 @@
       <c r="G4">
         <v>8.7691875647337006E-2</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
+      <c r="H4">
+        <v>11</v>
       </c>
       <c r="I4">
         <v>0.83384666666666596</v>
@@ -2006,8 +1969,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0.95441149999999997</v>
@@ -2015,8 +1978,8 @@
       <c r="D5">
         <v>3.9356061270518598E-2</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0.91425816666666604</v>
@@ -2024,8 +1987,8 @@
       <c r="G5">
         <v>8.7154143273869999E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
+      <c r="H5">
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0.83898150000000005</v>
@@ -2042,8 +2005,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>0.922129166666667</v>
@@ -2051,8 +2014,8 @@
       <c r="D6">
         <v>6.21896845305204E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0.85121466666666701</v>
@@ -2060,8 +2023,8 @@
       <c r="G6">
         <v>8.4952358163350103E-2</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0.90284816666666701</v>
@@ -2078,8 +2041,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0.94117633333333295</v>
@@ -2087,8 +2050,8 @@
       <c r="D7">
         <v>4.4621187601159303E-2</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0.87023283333333301</v>
@@ -2096,8 +2059,8 @@
       <c r="G7">
         <v>7.3165255510180896E-2</v>
       </c>
-      <c r="H7" t="s">
-        <v>7</v>
+      <c r="H7">
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0.87506183333333298</v>
@@ -2114,8 +2077,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0.93950383333333298</v>
@@ -2123,8 +2086,8 @@
       <c r="D8">
         <v>4.9242561482194303E-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0.87467816666666598</v>
@@ -2132,8 +2095,8 @@
       <c r="G8">
         <v>6.4761771038995997E-2</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
+      <c r="H8">
+        <v>6</v>
       </c>
       <c r="I8">
         <v>0.8576705</v>
@@ -2150,8 +2113,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0.9004645</v>
@@ -2159,8 +2122,8 @@
       <c r="D9">
         <v>7.7196042434456297E-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0.80328149999999998</v>
@@ -2168,8 +2131,8 @@
       <c r="G9">
         <v>0.117924037353915</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
+      <c r="H9">
+        <v>7</v>
       </c>
       <c r="I9" s="2">
         <v>0.96269199999999999</v>
@@ -2186,8 +2149,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0.93985333333333299</v>
@@ -2195,8 +2158,8 @@
       <c r="D10">
         <v>4.2546018422595297E-2</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0.90274549999999998</v>
@@ -2204,8 +2167,8 @@
       <c r="G10">
         <v>8.4446904478595E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
+      <c r="H10">
+        <v>8</v>
       </c>
       <c r="I10">
         <v>0.82836799999999999</v>
@@ -2222,8 +2185,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>0.91363783333333304</v>
@@ -2231,8 +2194,8 @@
       <c r="D11">
         <v>5.3659394555283103E-2</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.848047</v>
@@ -2240,8 +2203,8 @@
       <c r="G11">
         <v>7.4718584562229601E-2</v>
       </c>
-      <c r="H11" t="s">
-        <v>1</v>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11">
         <v>0.81973533333333304</v>
@@ -2258,8 +2221,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>0.96384633333333303</v>
@@ -2267,8 +2230,8 @@
       <c r="D12">
         <v>4.22242557798026E-2</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
+      <c r="E12">
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0.90904750000000001</v>
@@ -2276,8 +2239,8 @@
       <c r="G12">
         <v>8.1436746081164996E-2</v>
       </c>
-      <c r="H12" t="s">
-        <v>2</v>
+      <c r="H12">
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0.82768649999999999</v>
@@ -2294,8 +2257,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>0.929568333333333</v>
@@ -2303,8 +2266,8 @@
       <c r="D13">
         <v>5.1395072446212303E-2</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
+      <c r="E13">
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0.84483600000000003</v>
@@ -2312,8 +2275,8 @@
       <c r="G13">
         <v>8.5919853020421599E-2</v>
       </c>
-      <c r="H13" t="s">
-        <v>6</v>
+      <c r="H13">
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0.91047816666666603</v>
@@ -2330,8 +2293,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>0.95119683333333305</v>
@@ -2339,8 +2302,8 @@
       <c r="D14">
         <v>3.8794388572543803E-2</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0.85080766666666696</v>
@@ -2348,8 +2311,8 @@
       <c r="G14">
         <v>7.5912833272643906E-2</v>
       </c>
-      <c r="H14" t="s">
-        <v>7</v>
+      <c r="H14">
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0.88524716666666603</v>
@@ -2366,8 +2329,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>0.95944383333333305</v>
@@ -2375,8 +2338,8 @@
       <c r="D15">
         <v>3.96923436707061E-2</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0.81378083333333295</v>
@@ -2384,8 +2347,8 @@
       <c r="G15">
         <v>0.13107336022362001</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
+      <c r="H15">
+        <v>6</v>
       </c>
       <c r="I15">
         <v>0.88557716666666697</v>
@@ -2402,8 +2365,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0.91171333333333304</v>
@@ -2411,8 +2374,8 @@
       <c r="D16">
         <v>7.4667377776073005E-2</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16">
         <v>0.78901766666666595</v>
@@ -2420,8 +2383,8 @@
       <c r="G16">
         <v>0.104441868355797</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
+      <c r="H16">
+        <v>7</v>
       </c>
       <c r="I16" s="2">
         <v>0.94391599999999998</v>
@@ -2438,8 +2401,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>0.94984283333333297</v>
@@ -2447,8 +2410,8 @@
       <c r="D17">
         <v>3.8479163813268602E-2</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
+      <c r="E17">
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0.86678166666666701</v>
@@ -2456,8 +2419,8 @@
       <c r="G17">
         <v>6.8864359017839202E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
+      <c r="H17">
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0.87521950000000004</v>
@@ -2474,8 +2437,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>0.88989083333333296</v>
@@ -2483,8 +2446,8 @@
       <c r="D18">
         <v>5.6502010818334197E-2</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0.86561416666666702</v>
@@ -2492,8 +2455,8 @@
       <c r="G18">
         <v>7.2434594755712206E-2</v>
       </c>
-      <c r="H18" t="s">
-        <v>1</v>
+      <c r="H18">
+        <v>10</v>
       </c>
       <c r="I18">
         <v>0.74483333333333301</v>
@@ -2510,8 +2473,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>0.93426383333333296</v>
@@ -2519,8 +2482,8 @@
       <c r="D19">
         <v>5.3839373944645899E-2</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="E19">
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0.91890416666666697</v>
@@ -2528,8 +2491,8 @@
       <c r="G19">
         <v>5.2738996130502001E-2</v>
       </c>
-      <c r="H19" t="s">
-        <v>2</v>
+      <c r="H19">
+        <v>11</v>
       </c>
       <c r="I19">
         <v>0.846569666666667</v>
@@ -2546,8 +2509,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>0.93087566666666699</v>
@@ -2555,8 +2518,8 @@
       <c r="D20">
         <v>5.2989247369972702E-2</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0.91088899999999995</v>
@@ -2564,8 +2527,8 @@
       <c r="G20">
         <v>5.8829505156419201E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>7</v>
+      <c r="H20">
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0.87288316666666699</v>
@@ -2582,8 +2545,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>0.912961666666667</v>
@@ -2591,8 +2554,8 @@
       <c r="D21">
         <v>5.5195577358036603E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0.90047716666666699</v>
@@ -2600,8 +2563,8 @@
       <c r="G21">
         <v>5.87813015378209E-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>8</v>
+      <c r="H21">
+        <v>6</v>
       </c>
       <c r="I21">
         <v>0.82801133333333299</v>
@@ -2618,8 +2581,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0.87981983333333302</v>
@@ -2627,8 +2590,8 @@
       <c r="D22">
         <v>7.09244531829029E-2</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
+      <c r="E22">
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0.79327033333333297</v>
@@ -2636,8 +2599,8 @@
       <c r="G22">
         <v>9.7622565430554697E-2</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
+      <c r="H22">
+        <v>7</v>
       </c>
       <c r="I22" s="2">
         <v>0.93389683333333295</v>
@@ -2654,8 +2617,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>0.91709216666666704</v>
@@ -2663,8 +2626,8 @@
       <c r="D23">
         <v>4.6411877209109401E-2</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
+      <c r="E23">
+        <v>4</v>
       </c>
       <c r="F23">
         <v>0.90421033333333301</v>
@@ -2672,8 +2635,8 @@
       <c r="G23">
         <v>5.64901081476313E-2</v>
       </c>
-      <c r="H23" t="s">
-        <v>10</v>
+      <c r="H23">
+        <v>8</v>
       </c>
       <c r="I23">
         <v>0.85015600000000002</v>
@@ -2690,8 +2653,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>0.92768883333333296</v>
@@ -2699,8 +2662,8 @@
       <c r="D24">
         <v>5.9856323911305701E-2</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
+      <c r="E24">
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0.87711499999999998</v>
@@ -2708,8 +2671,8 @@
       <c r="G24">
         <v>0.10519131704354701</v>
       </c>
-      <c r="H24" t="s">
-        <v>1</v>
+      <c r="H24">
+        <v>10</v>
       </c>
       <c r="I24">
         <v>0.87622299999999997</v>
@@ -2726,8 +2689,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>0.94756916666666702</v>
@@ -2735,8 +2698,8 @@
       <c r="D25">
         <v>5.41907481970079E-2</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0.91148166666666697</v>
@@ -2744,8 +2707,8 @@
       <c r="G25">
         <v>5.5937077447193603E-2</v>
       </c>
-      <c r="H25" t="s">
-        <v>2</v>
+      <c r="H25">
+        <v>11</v>
       </c>
       <c r="I25">
         <v>0.82937000000000005</v>
@@ -2762,8 +2725,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>0.94404350000000004</v>
@@ -2771,8 +2734,8 @@
       <c r="D26">
         <v>4.3941073477895699E-2</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0.865706166666667</v>
@@ -2780,8 +2743,8 @@
       <c r="G26">
         <v>9.4119463991279004E-2</v>
       </c>
-      <c r="H26" t="s">
-        <v>8</v>
+      <c r="H26">
+        <v>6</v>
       </c>
       <c r="I26">
         <v>0.85832149999999996</v>
@@ -2798,8 +2761,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>0.80286183333333305</v>
@@ -2807,8 +2770,8 @@
       <c r="D27">
         <v>4.0684105274734102E-2</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
+      <c r="E27">
+        <v>5</v>
       </c>
       <c r="F27">
         <v>0.60524066666666698</v>
@@ -2816,8 +2779,8 @@
       <c r="G27">
         <v>0.100957202626954</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
+      <c r="H27">
+        <v>7</v>
       </c>
       <c r="I27">
         <v>0.587638833333333</v>
@@ -2834,8 +2797,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>0.94100283333333301</v>
@@ -2843,8 +2806,8 @@
       <c r="D28">
         <v>4.0533640102657399E-2</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
+      <c r="E28">
+        <v>5</v>
       </c>
       <c r="F28">
         <v>0.88130900000000001</v>
@@ -2852,8 +2815,8 @@
       <c r="G28">
         <v>8.5654372635175002E-2</v>
       </c>
-      <c r="H28" t="s">
-        <v>10</v>
+      <c r="H28">
+        <v>8</v>
       </c>
       <c r="I28">
         <v>0.84918133333333301</v>
@@ -2870,8 +2833,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>0.94090416666666699</v>
@@ -2879,8 +2842,8 @@
       <c r="D29">
         <v>4.3005938587454197E-2</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
+      <c r="E29">
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0.815363333333333</v>
@@ -2888,8 +2851,8 @@
       <c r="G29">
         <v>0.129363222280476</v>
       </c>
-      <c r="H29" t="s">
-        <v>1</v>
+      <c r="H29">
+        <v>10</v>
       </c>
       <c r="I29">
         <v>0.77373749999999997</v>
@@ -2906,8 +2869,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>0.95875833333333305</v>
@@ -2915,8 +2878,8 @@
       <c r="D30">
         <v>4.2495484002492097E-2</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
+      <c r="E30">
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0.907588333333333</v>
@@ -2924,8 +2887,8 @@
       <c r="G30">
         <v>7.9218340029122702E-2</v>
       </c>
-      <c r="H30" t="s">
-        <v>2</v>
+      <c r="H30">
+        <v>11</v>
       </c>
       <c r="I30">
         <v>0.806619166666667</v>
@@ -2942,8 +2905,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0.90230650000000001</v>
@@ -2951,8 +2914,8 @@
       <c r="D31">
         <v>7.50892361517113E-2</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
+      <c r="E31">
+        <v>6</v>
       </c>
       <c r="F31">
         <v>0.80121833333333303</v>
@@ -2960,8 +2923,8 @@
       <c r="G31">
         <v>0.110530487674893</v>
       </c>
-      <c r="H31" t="s">
-        <v>9</v>
+      <c r="H31">
+        <v>7</v>
       </c>
       <c r="I31" s="2">
         <v>0.95342066666666703</v>
@@ -2978,8 +2941,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>0.94811849999999998</v>
@@ -2987,8 +2950,8 @@
       <c r="D32">
         <v>4.66826575727095E-2</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
+      <c r="E32">
+        <v>6</v>
       </c>
       <c r="F32">
         <v>0.87801883333333397</v>
@@ -2996,8 +2959,8 @@
       <c r="G32">
         <v>8.5674198775967297E-2</v>
       </c>
-      <c r="H32" t="s">
-        <v>10</v>
+      <c r="H32">
+        <v>8</v>
       </c>
       <c r="I32">
         <v>0.8084905</v>
@@ -3014,8 +2977,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0.87641683333333398</v>
@@ -3023,8 +2986,8 @@
       <c r="D33">
         <v>6.3849435538740798E-2</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
+      <c r="E33">
+        <v>7</v>
       </c>
       <c r="F33" s="2">
         <v>0.94149316666666705</v>
@@ -3032,8 +2995,8 @@
       <c r="G33">
         <v>8.5161985620856695E-2</v>
       </c>
-      <c r="H33" t="s">
-        <v>1</v>
+      <c r="H33">
+        <v>10</v>
       </c>
       <c r="I33">
         <v>0.79093650000000004</v>
@@ -3050,8 +3013,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0.92491666666666705</v>
@@ -3059,8 +3022,8 @@
       <c r="D34">
         <v>6.48199739605195E-2</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
+      <c r="E34">
+        <v>7</v>
       </c>
       <c r="F34" s="2">
         <v>0.95479166666666704</v>
@@ -3068,8 +3031,8 @@
       <c r="G34">
         <v>6.3082304943380907E-2</v>
       </c>
-      <c r="H34" t="s">
-        <v>2</v>
+      <c r="H34">
+        <v>11</v>
       </c>
       <c r="I34">
         <v>0.81887333333333301</v>
@@ -3086,8 +3049,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0.90132950000000001</v>
@@ -3095,8 +3058,8 @@
       <c r="D35">
         <v>7.7930805367129999E-2</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
+      <c r="E35">
+        <v>7</v>
       </c>
       <c r="F35" s="2">
         <v>0.94160449999999996</v>
@@ -3104,8 +3067,8 @@
       <c r="G35">
         <v>8.7766256815127897E-2</v>
       </c>
-      <c r="H35" t="s">
-        <v>10</v>
+      <c r="H35">
+        <v>8</v>
       </c>
       <c r="I35">
         <v>0.78270283333333301</v>
@@ -3122,8 +3085,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>0.92276016666666705</v>
@@ -3131,8 +3094,8 @@
       <c r="D36">
         <v>4.8574074814035799E-2</v>
       </c>
-      <c r="E36" t="s">
-        <v>10</v>
+      <c r="E36">
+        <v>8</v>
       </c>
       <c r="F36">
         <v>0.76806166666666698</v>
@@ -3140,8 +3103,8 @@
       <c r="G36">
         <v>0.13979993954033099</v>
       </c>
-      <c r="H36" t="s">
-        <v>1</v>
+      <c r="H36">
+        <v>10</v>
       </c>
       <c r="I36">
         <v>0.81975516666666703</v>
@@ -3158,8 +3121,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" s="2">
         <v>0.94148500000000002</v>
@@ -3167,8 +3130,8 @@
       <c r="D37">
         <v>4.7540380962229303E-2</v>
       </c>
-      <c r="E37" t="s">
-        <v>10</v>
+      <c r="E37">
+        <v>8</v>
       </c>
       <c r="F37">
         <v>0.89775400000000005</v>
@@ -3176,8 +3139,8 @@
       <c r="G37">
         <v>7.8248888879315401E-2</v>
       </c>
-      <c r="H37" t="s">
-        <v>2</v>
+      <c r="H37">
+        <v>11</v>
       </c>
       <c r="I37">
         <v>0.85050416666666695</v>
@@ -3200,7 +3163,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,45 +3182,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0.89305349999999994</v>
@@ -3265,8 +3228,8 @@
       <c r="D2">
         <v>4.6489827020068902E-2</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0.74048099999999994</v>
@@ -3274,8 +3237,8 @@
       <c r="G2">
         <v>8.0943684769522295E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
+      <c r="H2">
+        <v>11</v>
       </c>
       <c r="I2">
         <v>0.71369833333333299</v>
@@ -3292,8 +3255,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.90588583333333395</v>
@@ -3301,8 +3264,8 @@
       <c r="D3">
         <v>6.1844641637270603E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.67225916666666696</v>
@@ -3310,8 +3273,8 @@
       <c r="G3">
         <v>6.8937782417894597E-2</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
+      <c r="H3">
+        <v>10</v>
       </c>
       <c r="I3">
         <v>0.70894583333333305</v>
@@ -3328,8 +3291,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0.86562616666666703</v>
@@ -3337,8 +3300,8 @@
       <c r="D4">
         <v>4.6871942100183299E-2</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0.73977233333333303</v>
@@ -3346,8 +3309,8 @@
       <c r="G4">
         <v>7.7933703689318304E-2</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
+      <c r="H4">
+        <v>11</v>
       </c>
       <c r="I4">
         <v>0.7238945</v>
@@ -3364,8 +3327,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0.88779683333333403</v>
@@ -3373,8 +3336,8 @@
       <c r="D5">
         <v>2.7457330872024299E-2</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0.74205750000000004</v>
@@ -3382,8 +3345,8 @@
       <c r="G5">
         <v>5.6213378063456401E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
+      <c r="H5">
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0.70812900000000001</v>
@@ -3400,8 +3363,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>0.82496650000000005</v>
@@ -3409,8 +3372,8 @@
       <c r="D6">
         <v>4.7669812884295303E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0.64633866666666695</v>
@@ -3418,8 +3381,8 @@
       <c r="G6">
         <v>8.2227575387605195E-2</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0.78664533333333397</v>
@@ -3436,8 +3399,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0.88553216666666701</v>
@@ -3445,8 +3408,8 @@
       <c r="D7">
         <v>3.5268221163528297E-2</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0.74095683333333295</v>
@@ -3454,8 +3417,8 @@
       <c r="G7">
         <v>6.5624159552110803E-2</v>
       </c>
-      <c r="H7" t="s">
-        <v>7</v>
+      <c r="H7">
+        <v>5</v>
       </c>
       <c r="I7">
         <v>0.70935033333333297</v>
@@ -3472,8 +3435,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0.89094333333333398</v>
@@ -3481,8 +3444,8 @@
       <c r="D8">
         <v>3.09258901830783E-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0.71413416666666596</v>
@@ -3490,8 +3453,8 @@
       <c r="G8">
         <v>5.7577812678610001E-2</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
+      <c r="H8">
+        <v>6</v>
       </c>
       <c r="I8">
         <v>0.71227166666666697</v>
@@ -3508,8 +3471,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>0.799155333333333</v>
@@ -3517,8 +3480,8 @@
       <c r="D9">
         <v>3.9795515523978503E-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0.61336683333333297</v>
@@ -3526,8 +3489,8 @@
       <c r="G9">
         <v>0.108743044764792</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
+      <c r="H9">
+        <v>7</v>
       </c>
       <c r="I9">
         <v>0.76110583333333404</v>
@@ -3544,8 +3507,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0.87999899999999998</v>
@@ -3553,8 +3516,8 @@
       <c r="D10">
         <v>2.6567412605339898E-2</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0.74383383333333297</v>
@@ -3562,8 +3525,8 @@
       <c r="G10">
         <v>5.10616883510513E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
+      <c r="H10">
+        <v>8</v>
       </c>
       <c r="I10">
         <v>0.70053383333333297</v>
@@ -3580,8 +3543,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>0.85220499999999999</v>
@@ -3589,8 +3552,8 @@
       <c r="D11">
         <v>6.6536086818752296E-2</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.714394166666667</v>
@@ -3598,8 +3561,8 @@
       <c r="G11">
         <v>7.2506202640378895E-2</v>
       </c>
-      <c r="H11" t="s">
-        <v>1</v>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11">
         <v>0.70073766666666704</v>
@@ -3616,8 +3579,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>0.88501566666666698</v>
@@ -3625,8 +3588,8 @@
       <c r="D12">
         <v>4.68830265757657E-2</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
+      <c r="E12">
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0.74856800000000001</v>
@@ -3634,8 +3597,8 @@
       <c r="G12">
         <v>6.4825198459042402E-2</v>
       </c>
-      <c r="H12" t="s">
-        <v>2</v>
+      <c r="H12">
+        <v>11</v>
       </c>
       <c r="I12">
         <v>0.69850083333333401</v>
@@ -3652,8 +3615,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>0.83588316666666596</v>
@@ -3661,8 +3624,8 @@
       <c r="D13">
         <v>4.50070451920686E-2</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
+      <c r="E13">
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0.694909</v>
@@ -3670,8 +3633,8 @@
       <c r="G13">
         <v>0.102649830775823</v>
       </c>
-      <c r="H13" t="s">
-        <v>6</v>
+      <c r="H13">
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0.77595650000000105</v>
@@ -3688,8 +3651,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>0.90195199999999998</v>
@@ -3697,8 +3660,8 @@
       <c r="D14">
         <v>4.6951704750552499E-2</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0.7124085</v>
@@ -3706,8 +3669,8 @@
       <c r="G14">
         <v>7.4139843443640094E-2</v>
       </c>
-      <c r="H14" t="s">
-        <v>7</v>
+      <c r="H14">
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0.72541666666666704</v>
@@ -3724,8 +3687,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>0.88974683333333404</v>
@@ -3733,8 +3696,8 @@
       <c r="D15">
         <v>3.1874094975076997E-2</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0.71819233333333299</v>
@@ -3742,8 +3705,8 @@
       <c r="G15">
         <v>5.7566486524144103E-2</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
+      <c r="H15">
+        <v>6</v>
       </c>
       <c r="I15">
         <v>0.72775100000000004</v>
@@ -3760,8 +3723,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>0.79898116666666696</v>
@@ -3769,8 +3732,8 @@
       <c r="D16">
         <v>3.3479991449063697E-2</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16">
         <v>0.71505016666666699</v>
@@ -3778,8 +3741,8 @@
       <c r="G16">
         <v>8.29325165827699E-2</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
+      <c r="H16">
+        <v>7</v>
       </c>
       <c r="I16">
         <v>0.72972583333333296</v>
@@ -3796,8 +3759,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>0.92687166666666698</v>
@@ -3805,8 +3768,8 @@
       <c r="D17">
         <v>2.90336080049537E-2</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
+      <c r="E17">
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0.68909433333333303</v>
@@ -3814,8 +3777,8 @@
       <c r="G17">
         <v>6.1476412684030098E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
+      <c r="H17">
+        <v>8</v>
       </c>
       <c r="I17">
         <v>0.70256533333333304</v>
@@ -3832,8 +3795,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>0.83548166666666701</v>
@@ -3841,8 +3804,8 @@
       <c r="D18">
         <v>4.5496269943676497E-2</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0.69257583333333295</v>
@@ -3850,8 +3813,8 @@
       <c r="G18">
         <v>6.0420587168513E-2</v>
       </c>
-      <c r="H18" t="s">
-        <v>1</v>
+      <c r="H18">
+        <v>10</v>
       </c>
       <c r="I18">
         <v>0.66770916666666702</v>
@@ -3868,8 +3831,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>0.86134866666666698</v>
@@ -3877,8 +3840,8 @@
       <c r="D19">
         <v>4.4837757147171198E-2</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="E19">
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0.814446</v>
@@ -3886,8 +3849,8 @@
       <c r="G19">
         <v>4.6347656558606898E-2</v>
       </c>
-      <c r="H19" t="s">
-        <v>2</v>
+      <c r="H19">
+        <v>11</v>
       </c>
       <c r="I19">
         <v>0.72093600000000002</v>
@@ -3904,8 +3867,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>0.85783783333333397</v>
@@ -3913,8 +3876,8 @@
       <c r="D20">
         <v>5.0101463224739101E-2</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0.80749499999999996</v>
@@ -3922,8 +3885,8 @@
       <c r="G20">
         <v>5.3576862021471501E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>7</v>
+      <c r="H20">
+        <v>5</v>
       </c>
       <c r="I20">
         <v>0.71073216666666605</v>
@@ -3940,8 +3903,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>0.81985600000000003</v>
@@ -3949,8 +3912,8 @@
       <c r="D21">
         <v>4.3514922365489497E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0.77762399999999998</v>
@@ -3958,8 +3921,8 @@
       <c r="G21">
         <v>5.8405478997686097E-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>8</v>
+      <c r="H21">
+        <v>6</v>
       </c>
       <c r="I21">
         <v>0.65846066666666703</v>
@@ -3976,8 +3939,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>0.79731133333333304</v>
@@ -3985,8 +3948,8 @@
       <c r="D22">
         <v>3.2867523534285903E-2</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
+      <c r="E22">
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0.64078749999999995</v>
@@ -3994,8 +3957,8 @@
       <c r="G22">
         <v>0.122396653876177</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
+      <c r="H22">
+        <v>7</v>
       </c>
       <c r="I22">
         <v>0.75826383333333403</v>
@@ -4012,8 +3975,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>0.83668683333333305</v>
@@ -4021,8 +3984,8 @@
       <c r="D23">
         <v>4.7115980537453001E-2</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
+      <c r="E23">
+        <v>4</v>
       </c>
       <c r="F23">
         <v>0.80078716666666705</v>
@@ -4030,8 +3993,8 @@
       <c r="G23">
         <v>4.7425985264165402E-2</v>
       </c>
-      <c r="H23" t="s">
-        <v>10</v>
+      <c r="H23">
+        <v>8</v>
       </c>
       <c r="I23">
         <v>0.664899666666667</v>
@@ -4048,8 +4011,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>0.87244416666666702</v>
@@ -4057,8 +4020,8 @@
       <c r="D24">
         <v>5.3012252350210697E-2</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
+      <c r="E24">
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0.76949333333333303</v>
@@ -4066,8 +4029,8 @@
       <c r="G24">
         <v>9.3761486116570703E-2</v>
       </c>
-      <c r="H24" t="s">
-        <v>2</v>
+      <c r="H24">
+        <v>11</v>
       </c>
       <c r="I24">
         <v>0.68163416666666699</v>
@@ -4084,8 +4047,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>0.90084350000000002</v>
@@ -4093,8 +4056,8 @@
       <c r="D25">
         <v>3.4175862818761102E-2</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0.70148266666666703</v>
@@ -4102,8 +4065,8 @@
       <c r="G25">
         <v>8.0842819558228501E-2</v>
       </c>
-      <c r="H25" t="s">
-        <v>8</v>
+      <c r="H25">
+        <v>6</v>
       </c>
       <c r="I25">
         <v>0.71756350000000002</v>
@@ -4120,8 +4083,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>0.83824050000000006</v>
@@ -4129,8 +4092,8 @@
       <c r="D26">
         <v>4.5937654376081001E-2</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0.70561716666666596</v>
@@ -4138,8 +4101,8 @@
       <c r="G26">
         <v>8.8646065999907098E-2</v>
       </c>
-      <c r="H26" t="s">
-        <v>9</v>
+      <c r="H26">
+        <v>7</v>
       </c>
       <c r="I26">
         <v>0.79874250000000002</v>
@@ -4156,8 +4119,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>0.89387683333333401</v>
@@ -4165,8 +4128,8 @@
       <c r="D27">
         <v>3.9017126943010599E-2</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
+      <c r="E27">
+        <v>5</v>
       </c>
       <c r="F27">
         <v>0.72328466666666602</v>
@@ -4174,8 +4137,8 @@
       <c r="G27">
         <v>6.38115672120384E-2</v>
       </c>
-      <c r="H27" t="s">
-        <v>10</v>
+      <c r="H27">
+        <v>8</v>
       </c>
       <c r="I27">
         <v>0.69822233333333295</v>
@@ -4192,8 +4155,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>0.89567916666666703</v>
@@ -4201,8 +4164,8 @@
       <c r="D28">
         <v>4.3896823545949697E-2</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="F28">
         <v>0.65980583333333298</v>
@@ -4210,8 +4173,8 @@
       <c r="G28">
         <v>0.12740333080121</v>
       </c>
-      <c r="H28" t="s">
-        <v>1</v>
+      <c r="H28">
+        <v>10</v>
       </c>
       <c r="I28">
         <v>0.67052333333333303</v>
@@ -4228,8 +4191,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>0.898963333333333</v>
@@ -4237,8 +4200,8 @@
       <c r="D29">
         <v>3.8430620446185698E-2</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
+      <c r="E29">
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0.72174083333333305</v>
@@ -4246,8 +4209,8 @@
       <c r="G29">
         <v>8.0456625068568696E-2</v>
       </c>
-      <c r="H29" t="s">
-        <v>2</v>
+      <c r="H29">
+        <v>11</v>
       </c>
       <c r="I29">
         <v>0.69245083333333302</v>
@@ -4264,8 +4227,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>0.80224966666666697</v>
@@ -4273,8 +4236,8 @@
       <c r="D30">
         <v>3.92802670503654E-2</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
+      <c r="E30">
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0.6362795</v>
@@ -4282,8 +4245,8 @@
       <c r="G30">
         <v>0.12432983482881101</v>
       </c>
-      <c r="H30" t="s">
-        <v>9</v>
+      <c r="H30">
+        <v>7</v>
       </c>
       <c r="I30">
         <v>0.78414366666666702</v>
@@ -4300,8 +4263,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" s="2">
         <v>0.88241049999999999</v>
@@ -4309,8 +4272,8 @@
       <c r="D31">
         <v>2.6021078445648198E-2</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
+      <c r="E31">
+        <v>6</v>
       </c>
       <c r="F31">
         <v>0.72652150000000004</v>
@@ -4318,8 +4281,8 @@
       <c r="G31">
         <v>5.4313036822647903E-2</v>
       </c>
-      <c r="H31" t="s">
-        <v>10</v>
+      <c r="H31">
+        <v>8</v>
       </c>
       <c r="I31">
         <v>0.68850849999999997</v>
@@ -4336,8 +4299,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>0.82967800000000003</v>
@@ -4345,8 +4308,8 @@
       <c r="D32">
         <v>4.1711513452316197E-2</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
+      <c r="E32">
+        <v>7</v>
       </c>
       <c r="F32">
         <v>0.71625700000000003</v>
@@ -4354,8 +4317,8 @@
       <c r="G32">
         <v>9.6523325540763802E-2</v>
       </c>
-      <c r="H32" t="s">
-        <v>1</v>
+      <c r="H32">
+        <v>10</v>
       </c>
       <c r="I32">
         <v>0.67163399999999995</v>
@@ -4372,8 +4335,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <v>0.82085750000000002</v>
@@ -4381,8 +4344,8 @@
       <c r="D33">
         <v>4.6051028440791002E-2</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
+      <c r="E33">
+        <v>7</v>
       </c>
       <c r="F33">
         <v>0.77336083333333305</v>
@@ -4390,8 +4353,8 @@
       <c r="G33">
         <v>0.12759294861239801</v>
       </c>
-      <c r="H33" t="s">
-        <v>2</v>
+      <c r="H33">
+        <v>11</v>
       </c>
       <c r="I33">
         <v>0.672841666666667</v>
@@ -4408,8 +4371,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>0.79845316666666699</v>
@@ -4417,8 +4380,8 @@
       <c r="D34">
         <v>3.4229269143139E-2</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
+      <c r="E34">
+        <v>7</v>
       </c>
       <c r="F34">
         <v>0.76692966666666695</v>
@@ -4426,8 +4389,8 @@
       <c r="G34">
         <v>9.7614835493185101E-2</v>
       </c>
-      <c r="H34" t="s">
-        <v>10</v>
+      <c r="H34">
+        <v>8</v>
       </c>
       <c r="I34">
         <v>0.60684883333333395</v>
@@ -4444,8 +4407,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <v>0.88270233333333303</v>
@@ -4453,8 +4416,8 @@
       <c r="D35">
         <v>4.9410894817506303E-2</v>
       </c>
-      <c r="E35" t="s">
-        <v>10</v>
+      <c r="E35">
+        <v>8</v>
       </c>
       <c r="F35">
         <v>0.62743333333333295</v>
@@ -4462,8 +4425,8 @@
       <c r="G35">
         <v>9.9280287743656701E-2</v>
       </c>
-      <c r="H35" t="s">
-        <v>1</v>
+      <c r="H35">
+        <v>10</v>
       </c>
       <c r="I35">
         <v>0.65954933333333299</v>
@@ -4480,8 +4443,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>0.88964033333333303</v>
@@ -4489,8 +4452,8 @@
       <c r="D36">
         <v>4.6076538092600601E-2</v>
       </c>
-      <c r="E36" t="s">
-        <v>10</v>
+      <c r="E36">
+        <v>8</v>
       </c>
       <c r="F36">
         <v>0.72745850000000001</v>
@@ -4498,8 +4461,8 @@
       <c r="G36">
         <v>7.4435156875416103E-2</v>
       </c>
-      <c r="H36" t="s">
-        <v>2</v>
+      <c r="H36">
+        <v>11</v>
       </c>
       <c r="I36">
         <v>0.69147199999999998</v>
@@ -4521,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,45 +4504,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0.80142483333333403</v>
@@ -4587,8 +4550,8 @@
       <c r="D2">
         <v>9.26997793589181E-2</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0.644258</v>
@@ -4596,8 +4559,8 @@
       <c r="G2">
         <v>7.4340797107485201E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
+      <c r="H2">
+        <v>11</v>
       </c>
       <c r="I2">
         <v>0.57373216666666704</v>
@@ -4614,8 +4577,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>0.84404800000000002</v>
@@ -4623,8 +4586,8 @@
       <c r="D3">
         <v>4.7576505909705802E-2</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.61930149999999995</v>
@@ -4632,8 +4595,8 @@
       <c r="G3">
         <v>0.112044338209615</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
+      <c r="H3">
+        <v>11</v>
       </c>
       <c r="I3">
         <v>0.57576683333333301</v>
@@ -4642,7 +4605,7 @@
         <v>0.110879840635229</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K36" si="0">SUM(C3,F3,I3)</f>
+        <f t="shared" ref="K3:K22" si="0">SUM(C3,F3,I3)</f>
         <v>2.0391163333333333</v>
       </c>
     </row>
@@ -4650,8 +4613,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>0.86490833333333295</v>
@@ -4659,8 +4622,8 @@
       <c r="D4">
         <v>4.0577950477713301E-2</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0.63015666666666703</v>
@@ -4668,8 +4631,8 @@
       <c r="G4">
         <v>6.6116599461056594E-2</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
+      <c r="H4">
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0.56248600000000004</v>
@@ -4686,8 +4649,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0.79191033333333405</v>
@@ -4695,8 +4658,8 @@
       <c r="D5">
         <v>3.3939684634765599E-2</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0.52994750000000002</v>
@@ -4704,8 +4667,8 @@
       <c r="G5">
         <v>8.38032076693844E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
+      <c r="H5">
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0.69486933333333301</v>
@@ -4722,8 +4685,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>0.84633916666666698</v>
@@ -4731,8 +4694,8 @@
       <c r="D6">
         <v>5.5202419140421802E-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0.60715516666666702</v>
@@ -4740,8 +4703,8 @@
       <c r="G6">
         <v>8.0291281023821798E-2</v>
       </c>
-      <c r="H6" t="s">
-        <v>7</v>
+      <c r="H6">
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0.61683399999999999</v>
@@ -4758,8 +4721,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>0.865398</v>
@@ -4767,8 +4730,8 @@
       <c r="D7">
         <v>3.7840945933638397E-2</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0.6161335</v>
@@ -4776,8 +4739,8 @@
       <c r="G7">
         <v>5.61988492500861E-2</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
+      <c r="H7">
+        <v>6</v>
       </c>
       <c r="I7">
         <v>0.57504116666666705</v>
@@ -4794,8 +4757,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>0.79070066666666705</v>
@@ -4803,8 +4766,8 @@
       <c r="D8">
         <v>2.9877852625550701E-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0.50351883333333303</v>
@@ -4812,8 +4775,8 @@
       <c r="G8">
         <v>0.11212580640212901</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="I8">
         <v>0.67793266666666696</v>
@@ -4830,8 +4793,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>0.87101266666666599</v>
@@ -4839,8 +4802,8 @@
       <c r="D9">
         <v>3.32295911044923E-2</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0.63317483333333402</v>
@@ -4848,8 +4811,8 @@
       <c r="G9">
         <v>6.0180509950795998E-2</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
+      <c r="H9">
+        <v>8</v>
       </c>
       <c r="I9">
         <v>0.56148033333333303</v>
@@ -4866,8 +4829,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>0.71224283333333405</v>
@@ -4875,8 +4838,8 @@
       <c r="D10">
         <v>0.19450511899578601</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
+      <c r="E10">
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0.62660983333333298</v>
@@ -4884,8 +4847,8 @@
       <c r="G10">
         <v>0.16446283554725299</v>
       </c>
-      <c r="H10" t="s">
-        <v>1</v>
+      <c r="H10">
+        <v>10</v>
       </c>
       <c r="I10">
         <v>0.58723133333333299</v>
@@ -4902,8 +4865,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>0.93282983333333303</v>
@@ -4911,8 +4874,8 @@
       <c r="D11">
         <v>5.4381002306284898E-2</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.59764533333333303</v>
@@ -4920,8 +4883,8 @@
       <c r="G11">
         <v>7.6739383221232194E-2</v>
       </c>
-      <c r="H11" t="s">
-        <v>2</v>
+      <c r="H11">
+        <v>11</v>
       </c>
       <c r="I11">
         <v>0.52114150000000004</v>
@@ -4938,8 +4901,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>0.79473349999999998</v>
@@ -4947,8 +4910,8 @@
       <c r="D12">
         <v>3.1008367204593601E-2</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
+      <c r="E12">
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0.59598850000000003</v>
@@ -4956,8 +4919,8 @@
       <c r="G12">
         <v>8.5900502905435799E-2</v>
       </c>
-      <c r="H12" t="s">
-        <v>6</v>
+      <c r="H12">
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0.64657200000000004</v>
@@ -4974,8 +4937,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>0.85652450000000002</v>
@@ -4983,8 +4946,8 @@
       <c r="D13">
         <v>5.6135740584160897E-2</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
+      <c r="E13">
+        <v>3</v>
       </c>
       <c r="F13">
         <v>0.60692100000000004</v>
@@ -4992,8 +4955,8 @@
       <c r="G13">
         <v>6.5591887900144197E-2</v>
       </c>
-      <c r="H13" t="s">
-        <v>7</v>
+      <c r="H13">
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0.59111883333333304</v>
@@ -5010,8 +4973,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>0.87877666666666698</v>
@@ -5019,8 +4982,8 @@
       <c r="D14">
         <v>3.9804583317845997E-2</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0.595380666666667</v>
@@ -5028,8 +4991,8 @@
       <c r="G14">
         <v>7.8748897304449103E-2</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
+      <c r="H14">
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0.595285333333333</v>
@@ -5046,8 +5009,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>0.78858150000000005</v>
@@ -5055,8 +5018,8 @@
       <c r="D15">
         <v>2.9578408113443599E-2</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0.61570866666666701</v>
@@ -5064,8 +5027,8 @@
       <c r="G15">
         <v>7.2639374728200701E-2</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
+      <c r="H15">
+        <v>7</v>
       </c>
       <c r="I15">
         <v>0.5896595</v>
@@ -5082,8 +5045,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>0.88934349999999995</v>
@@ -5091,8 +5054,8 @@
       <c r="D16">
         <v>3.46942883408001E-2</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16">
         <v>0.60949716666666698</v>
@@ -5100,8 +5063,8 @@
       <c r="G16">
         <v>6.4209630411635799E-2</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
+      <c r="H16">
+        <v>8</v>
       </c>
       <c r="I16">
         <v>0.58624399999999999</v>
@@ -5118,8 +5081,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>0.81300416666666697</v>
@@ -5127,8 +5090,8 @@
       <c r="D17">
         <v>4.2086098646018803E-2</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
+      <c r="E17">
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0.53154166666666702</v>
@@ -5136,8 +5099,8 @@
       <c r="G17">
         <v>0.15236158247784001</v>
       </c>
-      <c r="H17" t="s">
-        <v>1</v>
+      <c r="H17">
+        <v>10</v>
       </c>
       <c r="I17">
         <v>0.61608833333333302</v>
@@ -5154,8 +5117,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>0.81027816666666697</v>
@@ -5163,8 +5126,8 @@
       <c r="D18">
         <v>4.0081660098390898E-2</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0.62454416666666701</v>
@@ -5172,8 +5135,8 @@
       <c r="G18">
         <v>0.10154309328659</v>
       </c>
-      <c r="H18" t="s">
-        <v>2</v>
+      <c r="H18">
+        <v>11</v>
       </c>
       <c r="I18">
         <v>0.60889349999999998</v>
@@ -5190,8 +5153,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>0.82039600000000101</v>
@@ -5199,8 +5162,8 @@
       <c r="D19">
         <v>4.8740026992056998E-2</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="E19">
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0.66298416666666704</v>
@@ -5208,8 +5171,8 @@
       <c r="G19">
         <v>6.0762780403340898E-2</v>
       </c>
-      <c r="H19" t="s">
-        <v>7</v>
+      <c r="H19">
+        <v>5</v>
       </c>
       <c r="I19">
         <v>0.60212466666666697</v>
@@ -5226,8 +5189,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>0.78703199999999995</v>
@@ -5235,8 +5198,8 @@
       <c r="D20">
         <v>3.5791984700677897E-2</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0.70741366666666705</v>
@@ -5244,8 +5207,8 @@
       <c r="G20">
         <v>5.2230733369938297E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>8</v>
+      <c r="H20">
+        <v>6</v>
       </c>
       <c r="I20">
         <v>0.51095966666666703</v>
@@ -5262,8 +5225,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>0.77765483333333296</v>
@@ -5271,8 +5234,8 @@
       <c r="D21">
         <v>2.4178271972268201E-2</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0.4923015</v>
@@ -5280,8 +5243,8 @@
       <c r="G21">
         <v>8.6315639544147796E-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
+      <c r="H21">
+        <v>7</v>
       </c>
       <c r="I21">
         <v>0.674284833333334</v>
@@ -5298,8 +5261,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" s="2">
         <v>0.78247883333333401</v>
@@ -5307,8 +5270,8 @@
       <c r="D22">
         <v>3.0342819947141299E-2</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
+      <c r="E22">
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0.70267500000000005</v>
@@ -5316,8 +5279,8 @@
       <c r="G22">
         <v>6.1881117201467002E-2</v>
       </c>
-      <c r="H22" t="s">
-        <v>10</v>
+      <c r="H22">
+        <v>8</v>
       </c>
       <c r="I22">
         <v>0.52095983333333296</v>
@@ -5334,8 +5297,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>0.85453166666666702</v>
@@ -5343,8 +5306,8 @@
       <c r="D23">
         <v>4.7135683420474001E-2</v>
       </c>
-      <c r="E23" t="s">
-        <v>7</v>
+      <c r="E23">
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0.60687666666666695</v>
@@ -5352,8 +5315,8 @@
       <c r="G23">
         <v>9.9883650071045896E-2</v>
       </c>
-      <c r="H23" t="s">
-        <v>2</v>
+      <c r="H23">
+        <v>11</v>
       </c>
       <c r="I23">
         <v>0.59903333333333297</v>
@@ -5370,8 +5333,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>0.86046333333333402</v>
@@ -5379,8 +5342,8 @@
       <c r="D24">
         <v>5.34496516348517E-2</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
+      <c r="E24">
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0.63173849999999998</v>
@@ -5388,8 +5351,8 @@
       <c r="G24">
         <v>7.7611346820803104E-2</v>
       </c>
-      <c r="H24" t="s">
-        <v>8</v>
+      <c r="H24">
+        <v>6</v>
       </c>
       <c r="I24">
         <v>0.581561833333333</v>
@@ -5406,8 +5369,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>0.80894233333333299</v>
@@ -5415,8 +5378,8 @@
       <c r="D25">
         <v>4.5225645505757403E-2</v>
       </c>
-      <c r="E25" t="s">
-        <v>7</v>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0.602216166666666</v>
@@ -5424,8 +5387,8 @@
       <c r="G25">
         <v>0.103884638969725</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
+      <c r="H25">
+        <v>7</v>
       </c>
       <c r="I25">
         <v>0.60382916666666697</v>
@@ -5442,8 +5405,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>0.87290633333333301</v>
@@ -5451,8 +5414,8 @@
       <c r="D26">
         <v>3.2737315823760403E-2</v>
       </c>
-      <c r="E26" t="s">
-        <v>7</v>
+      <c r="E26">
+        <v>5</v>
       </c>
       <c r="F26">
         <v>0.62116133333333301</v>
@@ -5460,8 +5423,8 @@
       <c r="G26">
         <v>6.8927863777805798E-2</v>
       </c>
-      <c r="H26" t="s">
-        <v>10</v>
+      <c r="H26">
+        <v>8</v>
       </c>
       <c r="I26">
         <v>0.59803716666666695</v>
@@ -5478,8 +5441,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>0.84130333333333296</v>
@@ -5487,8 +5450,8 @@
       <c r="D27">
         <v>5.22765049491353E-2</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
+      <c r="E27">
+        <v>6</v>
       </c>
       <c r="F27">
         <v>0.60734416666666702</v>
@@ -5496,8 +5459,8 @@
       <c r="G27">
         <v>8.0289607440059099E-2</v>
       </c>
-      <c r="H27" t="s">
-        <v>1</v>
+      <c r="H27">
+        <v>10</v>
       </c>
       <c r="I27">
         <v>0.60242916666666702</v>
@@ -5514,8 +5477,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>0.87752666666666701</v>
@@ -5523,8 +5486,8 @@
       <c r="D28">
         <v>3.5806412664197297E-2</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="E28">
+        <v>6</v>
       </c>
       <c r="F28">
         <v>0.62350166666666695</v>
@@ -5532,8 +5495,8 @@
       <c r="G28">
         <v>6.03310209417907E-2</v>
       </c>
-      <c r="H28" t="s">
-        <v>2</v>
+      <c r="H28">
+        <v>11</v>
       </c>
       <c r="I28">
         <v>0.58689416666666705</v>
@@ -5550,8 +5513,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>0.78958566666666696</v>
@@ -5559,8 +5522,8 @@
       <c r="D29">
         <v>3.07324274368002E-2</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
+      <c r="E29">
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0.497729166666667</v>
@@ -5568,8 +5531,8 @@
       <c r="G29">
         <v>0.10075445110732301</v>
       </c>
-      <c r="H29" t="s">
-        <v>9</v>
+      <c r="H29">
+        <v>7</v>
       </c>
       <c r="I29">
         <v>0.66649083333333303</v>
@@ -5586,8 +5549,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>3</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>0.86955150000000003</v>
@@ -5595,8 +5558,8 @@
       <c r="D30">
         <v>2.9352108452259801E-2</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
+      <c r="E30">
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0.62067899999999998</v>
@@ -5604,8 +5567,8 @@
       <c r="G30">
         <v>5.5251775328482897E-2</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
+      <c r="H30">
+        <v>8</v>
       </c>
       <c r="I30">
         <v>0.57670383333333297</v>
@@ -5622,8 +5585,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" s="2">
         <v>0.78390333333333295</v>
@@ -5631,8 +5594,8 @@
       <c r="D31">
         <v>0.12211039017167501</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
+      <c r="E31">
+        <v>7</v>
       </c>
       <c r="F31">
         <v>0.566125833333333</v>
@@ -5640,8 +5603,8 @@
       <c r="G31">
         <v>7.7572964181921694E-2</v>
       </c>
-      <c r="H31" t="s">
-        <v>1</v>
+      <c r="H31">
+        <v>10</v>
       </c>
       <c r="I31">
         <v>0.64097249999999995</v>
@@ -5658,8 +5621,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>0.79837416666666705</v>
@@ -5667,8 +5630,8 @@
       <c r="D32">
         <v>4.3901963190382497E-2</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
+      <c r="E32">
+        <v>7</v>
       </c>
       <c r="F32">
         <v>0.60815833333333302</v>
@@ -5676,8 +5639,8 @@
       <c r="G32">
         <v>6.2139449310450602E-2</v>
       </c>
-      <c r="H32" t="s">
-        <v>2</v>
+      <c r="H32">
+        <v>11</v>
       </c>
       <c r="I32">
         <v>0.60160250000000004</v>
@@ -5694,8 +5657,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>3</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <v>0.792028333333333</v>
@@ -5703,8 +5666,8 @@
       <c r="D33">
         <v>3.4752875465310001E-2</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
+      <c r="E33">
+        <v>7</v>
       </c>
       <c r="F33">
         <v>0.67076400000000003</v>
@@ -5712,8 +5675,8 @@
       <c r="G33">
         <v>8.2125242536597198E-2</v>
       </c>
-      <c r="H33" t="s">
-        <v>10</v>
+      <c r="H33">
+        <v>8</v>
       </c>
       <c r="I33">
         <v>0.48868499999999998</v>
@@ -5730,8 +5693,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>0.842719833333333</v>
@@ -5739,8 +5702,8 @@
       <c r="D34">
         <v>3.8954817960614702E-2</v>
       </c>
-      <c r="E34" t="s">
-        <v>10</v>
+      <c r="E34">
+        <v>8</v>
       </c>
       <c r="F34">
         <v>0.53639300000000001</v>
@@ -5748,8 +5711,8 @@
       <c r="G34">
         <v>8.9013827211929603E-2</v>
       </c>
-      <c r="H34" t="s">
-        <v>1</v>
+      <c r="H34">
+        <v>10</v>
       </c>
       <c r="I34">
         <v>0.623786333333333</v>
@@ -5766,8 +5729,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <v>0.87078049999999996</v>
@@ -5775,8 +5738,8 @@
       <c r="D35">
         <v>5.8215109210785897E-2</v>
       </c>
-      <c r="E35" t="s">
-        <v>10</v>
+      <c r="E35">
+        <v>8</v>
       </c>
       <c r="F35">
         <v>0.63366250000000002</v>
@@ -5784,8 +5747,8 @@
       <c r="G35">
         <v>7.8935733430988905E-2</v>
       </c>
-      <c r="H35" t="s">
-        <v>2</v>
+      <c r="H35">
+        <v>11</v>
       </c>
       <c r="I35">
         <v>0.55497033333333301</v>

--- a/results_others.xlsx
+++ b/results_others.xlsx
@@ -859,15 +859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J1" sqref="J1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,8 +895,14 @@
       <c r="I1">
         <v>0.140698462796224</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>34.716666666666697</v>
+      </c>
+      <c r="K1">
+        <v>3.4986276566999801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -924,8 +930,14 @@
       <c r="I2">
         <v>0.119584244179173</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>43.35</v>
+      </c>
+      <c r="K2">
+        <v>9.5132824184337892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -953,8 +965,14 @@
       <c r="I3">
         <v>0.14524087341981701</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>47.266666666666701</v>
+      </c>
+      <c r="K3">
+        <v>4.1451080690320703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -982,8 +1000,14 @@
       <c r="I4">
         <v>8.7403679220287606E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>40.133333333333297</v>
+      </c>
+      <c r="K4">
+        <v>5.8410199558205402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1011,8 +1035,14 @@
       <c r="I5">
         <v>0.14827229235306499</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>44.133333333333297</v>
+      </c>
+      <c r="K5">
+        <v>5.2544304684735001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1070,14 @@
       <c r="I6">
         <v>0.24046671553718801</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>52.016666666666701</v>
+      </c>
+      <c r="K6">
+        <v>5.5218876245223498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1105,14 @@
       <c r="I7">
         <v>0.16128347102851401</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>57.6666666666667</v>
+      </c>
+      <c r="K7">
+        <v>1.4458200027064201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1098,8 +1140,14 @@
       <c r="I8">
         <v>0.11768171344523699</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>45.766666666666701</v>
+      </c>
+      <c r="K8">
+        <v>2.31697250348831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1175,14 @@
       <c r="I9">
         <v>7.2149798129007306E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>14.0833333333333</v>
+      </c>
+      <c r="K9">
+        <v>10.4058192107266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1156,8 +1210,14 @@
       <c r="I10">
         <v>0.27636650350555703</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>21.483333333333299</v>
+      </c>
+      <c r="K10">
+        <v>14.925227950638799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1245,14 @@
       <c r="I11">
         <v>8.6197758531293703E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>48.35</v>
+      </c>
+      <c r="K11">
+        <v>3.1880337705290902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1214,8 +1280,14 @@
       <c r="I12">
         <v>0.19333118992509499</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>50.1666666666667</v>
+      </c>
+      <c r="K12">
+        <v>6.1593711616807596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1243,8 +1315,14 @@
       <c r="I13">
         <v>8.2626755946707903E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>43.966666666666697</v>
+      </c>
+      <c r="K13">
+        <v>7.9040145703106797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1350,14 @@
       <c r="I14">
         <v>9.6702757425236194E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>56.966666666666697</v>
+      </c>
+      <c r="K14">
+        <v>1.54004915909505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1301,8 +1385,14 @@
       <c r="I15">
         <v>7.1559759444476997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>42.45</v>
+      </c>
+      <c r="K15">
+        <v>2.7085864723072999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1330,8 +1420,14 @@
       <c r="I16">
         <v>7.3344934068818396E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>24.05</v>
+      </c>
+      <c r="K16">
+        <v>10.6809270847539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1359,8 +1455,14 @@
       <c r="I17">
         <v>0.179577383494369</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>33.516666666666701</v>
+      </c>
+      <c r="K17">
+        <v>15.001120485457401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1388,8 +1490,14 @@
       <c r="I18">
         <v>0.16595894938615399</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>51.533333333333303</v>
+      </c>
+      <c r="K18">
+        <v>5.8843851590939398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1525,14 @@
       <c r="I19">
         <v>5.6707857495191201E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>32.283333333333303</v>
+      </c>
+      <c r="K19">
+        <v>6.0983233779948796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1446,8 +1560,14 @@
       <c r="I20">
         <v>0.14857762555168399</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>52.466666666666697</v>
+      </c>
+      <c r="K20">
+        <v>5.7709578756268796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1595,14 @@
       <c r="I21">
         <v>0.105991615591413</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>48.066666666666698</v>
+      </c>
+      <c r="K21">
+        <v>3.3133866471401001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1630,14 @@
       <c r="I22">
         <v>9.8109946635319897E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>53.616666666666703</v>
+      </c>
+      <c r="K22">
+        <v>5.5206597083880498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1533,8 +1665,14 @@
       <c r="I23">
         <v>0.10460243624365199</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>25.533333333333299</v>
+      </c>
+      <c r="K23">
+        <v>13.853307341345801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1562,8 +1700,14 @@
       <c r="I24">
         <v>0.195282334988713</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>51.783333333333303</v>
+      </c>
+      <c r="K24">
+        <v>2.4570318780425899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +1735,14 @@
       <c r="I25">
         <v>1.1165160779226999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="K25">
+        <v>0.47538268854152799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1620,8 +1770,14 @@
       <c r="I26">
         <v>0.13117533760157399</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>41.133333333333297</v>
+      </c>
+      <c r="K26">
+        <v>6.02105533479246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1649,8 +1805,14 @@
       <c r="I27">
         <v>0.10294395992508</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>56.566666666666698</v>
+      </c>
+      <c r="K27">
+        <v>1.3575484717340101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1677,6 +1839,12 @@
       </c>
       <c r="I28">
         <v>6.9381751737213296E-2</v>
+      </c>
+      <c r="J28">
+        <v>41.383333333333297</v>
+      </c>
+      <c r="K28">
+        <v>2.3512828569626301</v>
       </c>
     </row>
   </sheetData>
@@ -1686,15 +1854,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I36"/>
+      <selection activeCell="J1" sqref="J1:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +1890,14 @@
       <c r="I1">
         <v>9.4312404228029306E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>99.383333333333297</v>
+      </c>
+      <c r="K1">
+        <v>32.360831978298798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1751,8 +1925,14 @@
       <c r="I2">
         <v>0.148153373600308</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>94.8</v>
+      </c>
+      <c r="K2">
+        <v>17.4810308814431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1960,14 @@
       <c r="I3">
         <v>9.5897035649323795E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>69.75</v>
+      </c>
+      <c r="K3">
+        <v>46.114310804965399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1809,8 +1995,14 @@
       <c r="I4">
         <v>7.9855274341052399E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>60.05</v>
+      </c>
+      <c r="K4">
+        <v>18.742162203646501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1838,8 +2030,14 @@
       <c r="I5">
         <v>5.5317489510411301E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>95.266666666666694</v>
+      </c>
+      <c r="K5">
+        <v>16.491257742237401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1867,8 +2065,14 @@
       <c r="I6">
         <v>7.3684314281658295E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>89.366666666666703</v>
+      </c>
+      <c r="K6">
+        <v>10.697642171179499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1896,8 +2100,14 @@
       <c r="I7">
         <v>5.8139427574829199E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>81.866666666666703</v>
+      </c>
+      <c r="K7">
+        <v>12.512321610732201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +2135,14 @@
       <c r="I8">
         <v>5.3287133207029699E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>115.433333333333</v>
+      </c>
+      <c r="K8">
+        <v>28.9835527098321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1954,8 +2170,14 @@
       <c r="I9">
         <v>8.3520064894610793E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>67.4166666666667</v>
+      </c>
+      <c r="K9">
+        <v>17.242332284202998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1983,8 +2205,14 @@
       <c r="I10">
         <v>0.133098726432123</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>103.26666666666701</v>
+      </c>
+      <c r="K10">
+        <v>29.105807368957699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2012,8 +2240,14 @@
       <c r="I11">
         <v>0.100893591737256</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K11">
+        <v>34.679549974598501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2041,8 +2275,14 @@
       <c r="I12">
         <v>5.86132152476442E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K12">
+        <v>34.742003103750598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2070,8 +2310,14 @@
       <c r="I13">
         <v>8.6377106471244094E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>62.1666666666667</v>
+      </c>
+      <c r="K13">
+        <v>24.257912681919201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2345,14 @@
       <c r="I14">
         <v>7.8349249314255395E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="K14">
+        <v>18.417659175137501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2128,8 +2380,14 @@
       <c r="I15">
         <v>8.8449932159290298E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>93.983333333333306</v>
+      </c>
+      <c r="K15">
+        <v>49.518184184920898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2157,8 +2415,14 @@
       <c r="I16">
         <v>6.9565233047107003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>41.8333333333333</v>
+      </c>
+      <c r="K16">
+        <v>11.1601085388481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2186,8 +2450,14 @@
       <c r="I17">
         <v>0.113958781570223</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>108.566666666667</v>
+      </c>
+      <c r="K17">
+        <v>16.031078573383301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2215,8 +2485,14 @@
       <c r="I18">
         <v>0.112803210811477</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>56.6</v>
+      </c>
+      <c r="K18">
+        <v>49.901326363949103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2244,8 +2520,14 @@
       <c r="I19">
         <v>9.2584730162666606E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>99.8</v>
+      </c>
+      <c r="K19">
+        <v>14.072210865534499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2273,8 +2555,14 @@
       <c r="I20">
         <v>8.9880651364559597E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>97.266666666666694</v>
+      </c>
+      <c r="K20">
+        <v>18.121872416696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2302,8 +2590,14 @@
       <c r="I21">
         <v>8.6395244641021302E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>136.38333333333301</v>
+      </c>
+      <c r="K21">
+        <v>18.4823247369917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2331,8 +2625,14 @@
       <c r="I22">
         <v>7.6301077700810294E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>72.766666666666694</v>
+      </c>
+      <c r="K22">
+        <v>30.360750011205901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2360,8 +2660,14 @@
       <c r="I23">
         <v>0.121234976204288</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>105.383333333333</v>
+      </c>
+      <c r="K23">
+        <v>29.4498088777814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2389,8 +2695,14 @@
       <c r="I24">
         <v>9.9563322290161405E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>109.633333333333</v>
+      </c>
+      <c r="K24">
+        <v>45.5113942397914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2418,8 +2730,14 @@
       <c r="I25">
         <v>8.1816791132818104E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>87.9</v>
+      </c>
+      <c r="K25">
+        <v>12.942768414728301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2447,8 +2765,14 @@
       <c r="I26">
         <v>9.3921777444194707E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>169.833333333333</v>
+      </c>
+      <c r="K26">
+        <v>2.9754171715295299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2476,8 +2800,14 @@
       <c r="I27">
         <v>8.2000124854528095E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>67.216666666666697</v>
+      </c>
+      <c r="K27">
+        <v>19.692631046006099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2505,8 +2835,14 @@
       <c r="I28">
         <v>0.15189093402384601</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>108.2</v>
+      </c>
+      <c r="K28">
+        <v>14.616916134675501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2534,8 +2870,14 @@
       <c r="I29">
         <v>0.14189490307063299</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>99.9166666666667</v>
+      </c>
+      <c r="K29">
+        <v>28.9279008282261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2563,8 +2905,14 @@
       <c r="I30">
         <v>6.6627322177654505E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>118.65</v>
+      </c>
+      <c r="K30">
+        <v>27.982939717875201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2592,8 +2940,14 @@
       <c r="I31">
         <v>9.9709689742568802E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>75.7</v>
+      </c>
+      <c r="K31">
+        <v>15.714939453714001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="I32">
         <v>0.14081386426378001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>133.51666666666699</v>
+      </c>
+      <c r="K32">
+        <v>30.437761820356801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2650,8 +3010,14 @@
       <c r="I33">
         <v>0.15833334107815</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>132.01666666666699</v>
+      </c>
+      <c r="K33">
+        <v>47.110577338588598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +3045,14 @@
       <c r="I34">
         <v>0.10945093241763799</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>98.1666666666667</v>
+      </c>
+      <c r="K34">
+        <v>45.685426473771599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2708,8 +3080,14 @@
       <c r="I35">
         <v>0.14234083524392399</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>97.366666666666703</v>
+      </c>
+      <c r="K35">
+        <v>32.678177379348398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2736,6 +3114,12 @@
       </c>
       <c r="I36">
         <v>0.105062748922528</v>
+      </c>
+      <c r="J36">
+        <v>41.0833333333333</v>
+      </c>
+      <c r="K36">
+        <v>40.079705193047303</v>
       </c>
     </row>
   </sheetData>
@@ -2745,15 +3129,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I35"/>
+      <selection activeCell="J1" sqref="J1:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2781,8 +3165,14 @@
       <c r="I1">
         <v>7.2866325140959504E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>99.616666666666703</v>
+      </c>
+      <c r="K1">
+        <v>18.8185732871802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2810,8 +3200,14 @@
       <c r="I2">
         <v>8.9228562840130698E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>119.916666666667</v>
+      </c>
+      <c r="K2">
+        <v>25.333231117843098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2839,8 +3235,14 @@
       <c r="I3">
         <v>9.6063945447810897E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>102.783333333333</v>
+      </c>
+      <c r="K3">
+        <v>8.5788302048482006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2868,8 +3270,14 @@
       <c r="I4">
         <v>7.9684926114231405E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>128.53333333333299</v>
+      </c>
+      <c r="K4">
+        <v>7.8620881054927798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2897,8 +3305,14 @@
       <c r="I5">
         <v>5.4595077057094203E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>104.933333333333</v>
+      </c>
+      <c r="K5">
+        <v>10.881280250366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2926,8 +3340,14 @@
       <c r="I6">
         <v>8.2950581080435598E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>106.35</v>
+      </c>
+      <c r="K6">
+        <v>8.35205242207069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2955,8 +3375,14 @@
       <c r="I7">
         <v>7.36306490432556E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>162.25</v>
+      </c>
+      <c r="K7">
+        <v>5.4169382808910704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2984,8 +3410,14 @@
       <c r="I8">
         <v>9.5662414263302104E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>101.4</v>
+      </c>
+      <c r="K8">
+        <v>7.4017863166918101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3013,8 +3445,14 @@
       <c r="I9">
         <v>6.8743524467712105E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="K9">
+        <v>24.130857943403999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3042,8 +3480,14 @@
       <c r="I10">
         <v>9.69735037263878E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>97.183333333333294</v>
+      </c>
+      <c r="K10">
+        <v>37.0054927973557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3071,8 +3515,14 @@
       <c r="I11">
         <v>8.86828121480156E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="K11">
+        <v>10.110910368239701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3100,8 +3550,14 @@
       <c r="I12">
         <v>7.4617564566123895E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>104.51666666666701</v>
+      </c>
+      <c r="K12">
+        <v>13.011717882735001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3129,8 +3585,14 @@
       <c r="I13">
         <v>7.3877841283894893E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>101.666666666667</v>
+      </c>
+      <c r="K13">
+        <v>7.4188643350986601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3158,8 +3620,14 @@
       <c r="I14">
         <v>5.1615923988169998E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>165.1</v>
+      </c>
+      <c r="K14">
+        <v>4.5349864051521998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3187,8 +3655,14 @@
       <c r="I15">
         <v>0.106746411558655</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>79.75</v>
+      </c>
+      <c r="K15">
+        <v>14.240816249696801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3216,8 +3690,14 @@
       <c r="I16">
         <v>5.6563249896642701E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>115.683333333333</v>
+      </c>
+      <c r="K16">
+        <v>18.450567642424499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3245,8 +3725,14 @@
       <c r="I17">
         <v>0.12475332172355399</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>128.38333333333301</v>
+      </c>
+      <c r="K17">
+        <v>7.0086911340441702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3274,8 +3760,14 @@
       <c r="I18">
         <v>7.8940631526247099E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>127.216666666667</v>
+      </c>
+      <c r="K18">
+        <v>7.7088803440053599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3303,8 +3795,14 @@
       <c r="I19">
         <v>7.5883391521368498E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>129.01666666666699</v>
+      </c>
+      <c r="K19">
+        <v>9.2415635676621992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3332,8 +3830,14 @@
       <c r="I20">
         <v>0.10837382889507299</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>163.05000000000001</v>
+      </c>
+      <c r="K20">
+        <v>3.4268382423136101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3361,8 +3865,14 @@
       <c r="I21">
         <v>9.2861550710241395E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>125.166666666667</v>
+      </c>
+      <c r="K21">
+        <v>8.7936160716635303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3390,8 +3900,14 @@
       <c r="I22">
         <v>8.5370411397977297E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>126.916666666667</v>
+      </c>
+      <c r="K22">
+        <v>31.6523979152498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3419,8 +3935,14 @@
       <c r="I23">
         <v>9.1267267801604005E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>104.133333333333</v>
+      </c>
+      <c r="K23">
+        <v>9.05438683202539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3448,8 +3970,14 @@
       <c r="I24">
         <v>6.3118491336210794E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>161.23333333333301</v>
+      </c>
+      <c r="K24">
+        <v>6.4686117407916299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3477,8 +4005,14 @@
       <c r="I25">
         <v>8.9225692310120702E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>102.116666666667</v>
+      </c>
+      <c r="K25">
+        <v>11.8236930573372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3506,8 +4040,14 @@
       <c r="I26">
         <v>7.9047056064279697E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>113.166666666667</v>
+      </c>
+      <c r="K26">
+        <v>12.802497990714899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3535,8 +4075,14 @@
       <c r="I27">
         <v>7.8332541053375698E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>110.583333333333</v>
+      </c>
+      <c r="K27">
+        <v>12.110076581188901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3564,8 +4110,14 @@
       <c r="I28">
         <v>8.1523065387358401E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>162.333333333333</v>
+      </c>
+      <c r="K28">
+        <v>3.7356127020727201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3593,8 +4145,14 @@
       <c r="I29">
         <v>8.7461043472569805E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>100.883333333333</v>
+      </c>
+      <c r="K29">
+        <v>6.1205174996299796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3622,8 +4180,14 @@
       <c r="I30">
         <v>6.5986908558453405E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>148.6</v>
+      </c>
+      <c r="K30">
+        <v>32.150177267086498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3651,8 +4215,14 @@
       <c r="I31">
         <v>0.102569910409336</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>147.36666666666699</v>
+      </c>
+      <c r="K31">
+        <v>31.586827691552401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3680,8 +4250,14 @@
       <c r="I32">
         <v>6.5644739016969697E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>162.38333333333301</v>
+      </c>
+      <c r="K32">
+        <v>4.7159723790779404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -3709,8 +4285,14 @@
       <c r="I33">
         <v>0.116066779376732</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>120.883333333333</v>
+      </c>
+      <c r="K33">
+        <v>20.082956486606701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3738,8 +4320,14 @@
       <c r="I34">
         <v>7.0311709728691399E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>102.716666666667</v>
+      </c>
+      <c r="K34">
+        <v>33.973614720473002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3775,15 +4363,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I35"/>
+      <selection activeCell="J1" sqref="J1:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3811,8 +4399,14 @@
       <c r="I1">
         <v>0.104510772116784</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="K1">
+        <v>23.895819079737102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3840,8 +4434,14 @@
       <c r="I2">
         <v>0.110879840635229</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>135.816666666667</v>
+      </c>
+      <c r="K2">
+        <v>23.965718218269899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3869,8 +4469,14 @@
       <c r="I3">
         <v>7.9146834111229705E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>118.2</v>
+      </c>
+      <c r="K3">
+        <v>8.9457877598380193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3898,8 +4504,14 @@
       <c r="I4">
         <v>5.8303015849740902E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>141.53333333333299</v>
+      </c>
+      <c r="K4">
+        <v>6.2394770170526099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3927,8 +4539,14 @@
       <c r="I5">
         <v>0.100587659437858</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>127.166666666667</v>
+      </c>
+      <c r="K5">
+        <v>16.583805319348599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3956,8 +4574,14 @@
       <c r="I6">
         <v>6.7730090678823004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>121.933333333333</v>
+      </c>
+      <c r="K6">
+        <v>6.2649594982030301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3985,8 +4609,14 @@
       <c r="I7">
         <v>7.7633086163984497E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>165.98333333333301</v>
+      </c>
+      <c r="K7">
+        <v>2.92558362519731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4014,8 +4644,14 @@
       <c r="I8">
         <v>6.8352326283467393E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>119.51666666666701</v>
+      </c>
+      <c r="K8">
+        <v>5.6583271968547999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4043,8 +4679,14 @@
       <c r="I9">
         <v>0.169569918977161</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>164.75</v>
+      </c>
+      <c r="K9">
+        <v>20.380802698717901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4072,8 +4714,14 @@
       <c r="I10">
         <v>9.4952748013625105E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>104.2</v>
+      </c>
+      <c r="K10">
+        <v>30.643272826046601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4101,8 +4749,14 @@
       <c r="I11">
         <v>9.9678512394699895E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>146.51666666666699</v>
+      </c>
+      <c r="K11">
+        <v>8.9546724223776302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4130,8 +4784,14 @@
       <c r="I12">
         <v>8.5802046992524306E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>127.116666666667</v>
+      </c>
+      <c r="K12">
+        <v>28.627408738365499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4159,8 +4819,14 @@
       <c r="I13">
         <v>6.1742801336157102E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>118.083333333333</v>
+      </c>
+      <c r="K13">
+        <v>7.8832404648081598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4188,8 +4854,14 @@
       <c r="I14">
         <v>0.11793470697769699</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>169.833333333333</v>
+      </c>
+      <c r="K14">
+        <v>3.87589974974283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4217,8 +4889,14 @@
       <c r="I15">
         <v>6.1991931383125698E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>108</v>
+      </c>
+      <c r="K15">
+        <v>11.6123838046767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4246,8 +4924,14 @@
       <c r="I16">
         <v>9.5061011301673895E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>119.25</v>
+      </c>
+      <c r="K16">
+        <v>24.9695577365584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4275,8 +4959,14 @@
       <c r="I17">
         <v>9.8263635390131707E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>150.71666666666701</v>
+      </c>
+      <c r="K17">
+        <v>15.7792952374968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4304,8 +4994,14 @@
       <c r="I18">
         <v>0.108977346463657</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>145.183333333333</v>
+      </c>
+      <c r="K18">
+        <v>8.8958029842428097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4333,8 +5029,14 @@
       <c r="I19">
         <v>9.5817354218213205E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>138.85</v>
+      </c>
+      <c r="K19">
+        <v>6.5037798657682799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4362,8 +5064,14 @@
       <c r="I20">
         <v>6.9034641353101903E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>166.25</v>
+      </c>
+      <c r="K20">
+        <v>2.6013360322231298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4391,8 +5099,14 @@
       <c r="I21">
         <v>8.6492270654796699E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>139.36666666666699</v>
+      </c>
+      <c r="K21">
+        <v>6.9647214325318396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4420,8 +5134,14 @@
       <c r="I22" s="1">
         <v>7.6365175857802503E-7</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>132.01666666666699</v>
+      </c>
+      <c r="K22">
+        <v>33.8393471040648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4449,8 +5169,14 @@
       <c r="I23">
         <v>8.5712010756245793E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>129.26666666666699</v>
+      </c>
+      <c r="K23">
+        <v>32.558092366277798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4478,8 +5204,14 @@
       <c r="I24">
         <v>8.6360844558475203E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>125.833333333333</v>
+      </c>
+      <c r="K24">
+        <v>16.802105060476102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4507,8 +5239,14 @@
       <c r="I25">
         <v>9.1942881832324394E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>168.86666666666699</v>
+      </c>
+      <c r="K25">
+        <v>2.9998116701715101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4536,8 +5274,14 @@
       <c r="I26">
         <v>6.5522079396538799E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>110.9</v>
+      </c>
+      <c r="K26">
+        <v>11.563677791593699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4565,8 +5309,14 @@
       <c r="I27">
         <v>7.8353000807920903E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>115.283333333333</v>
+      </c>
+      <c r="K27">
+        <v>16.0434702559361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -4594,8 +5344,14 @@
       <c r="I28">
         <v>0.112062312897645</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>113.3</v>
+      </c>
+      <c r="K28">
+        <v>15.8042045467633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4623,8 +5379,14 @@
       <c r="I29">
         <v>8.7726190343449598E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>166.083333333333</v>
+      </c>
+      <c r="K29">
+        <v>3.0437023990175698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4652,8 +5414,14 @@
       <c r="I30">
         <v>5.9907114093025703E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>115.383333333333</v>
+      </c>
+      <c r="K30">
+        <v>5.5298624332865201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4681,8 +5449,14 @@
       <c r="I31">
         <v>0.142475560272631</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>149.683333333333</v>
+      </c>
+      <c r="K31">
+        <v>32.886807239309199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4710,8 +5484,14 @@
       <c r="I32">
         <v>0.118926000836655</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>148.94999999999999</v>
+      </c>
+      <c r="K32">
+        <v>32.366767325740803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4739,8 +5519,14 @@
       <c r="I33">
         <v>0.105527043597878</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>166.38333333333301</v>
+      </c>
+      <c r="K33">
+        <v>2.7927974352115701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4768,8 +5554,14 @@
       <c r="I34">
         <v>6.6883332725703598E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>139.03333333333299</v>
+      </c>
+      <c r="K34">
+        <v>18.022553353466101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4796,6 +5588,12 @@
       </c>
       <c r="I35">
         <v>0.112124339318828</v>
+      </c>
+      <c r="J35">
+        <v>119.116666666667</v>
+      </c>
+      <c r="K35">
+        <v>24.030412698563399</v>
       </c>
     </row>
   </sheetData>

--- a/results_others.xlsx
+++ b/results_others.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander\git\AI-Negotiation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward\Documents\GitHub\AI-Negotiation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="results_others" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K28"/>
+      <selection activeCell="J1" sqref="J1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K36"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J1:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,10 +3166,10 @@
         <v>7.2866325140959504E-2</v>
       </c>
       <c r="J1">
-        <v>99.616666666666703</v>
+        <v>140.35</v>
       </c>
       <c r="K1">
-        <v>18.8185732871802</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,10 +3201,10 @@
         <v>8.9228562840130698E-2</v>
       </c>
       <c r="J2">
-        <v>119.916666666667</v>
+        <v>99.616666666666703</v>
       </c>
       <c r="K2">
-        <v>25.333231117843098</v>
+        <v>18.8185732871802</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3236,10 +3236,10 @@
         <v>9.6063945447810897E-2</v>
       </c>
       <c r="J3">
-        <v>102.783333333333</v>
+        <v>119.916666666667</v>
       </c>
       <c r="K3">
-        <v>8.5788302048482006</v>
+        <v>25.333231117843098</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3271,10 +3271,10 @@
         <v>7.9684926114231405E-2</v>
       </c>
       <c r="J4">
-        <v>128.53333333333299</v>
+        <v>102.783333333333</v>
       </c>
       <c r="K4">
-        <v>7.8620881054927798</v>
+        <v>8.5788302048482006</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3306,10 +3306,10 @@
         <v>5.4595077057094203E-2</v>
       </c>
       <c r="J5">
-        <v>104.933333333333</v>
+        <v>128.53333333333299</v>
       </c>
       <c r="K5">
-        <v>10.881280250366</v>
+        <v>7.8620881054927798</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3341,10 +3341,10 @@
         <v>8.2950581080435598E-2</v>
       </c>
       <c r="J6">
-        <v>106.35</v>
+        <v>104.933333333333</v>
       </c>
       <c r="K6">
-        <v>8.35205242207069</v>
+        <v>10.881280250366</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3376,10 +3376,10 @@
         <v>7.36306490432556E-2</v>
       </c>
       <c r="J7">
-        <v>162.25</v>
+        <v>106.35</v>
       </c>
       <c r="K7">
-        <v>5.4169382808910704</v>
+        <v>8.35205242207069</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3411,10 +3411,10 @@
         <v>9.5662414263302104E-2</v>
       </c>
       <c r="J8">
-        <v>101.4</v>
+        <v>162.25</v>
       </c>
       <c r="K8">
-        <v>7.4017863166918101</v>
+        <v>5.4169382808910704</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3446,10 +3446,10 @@
         <v>6.8743524467712105E-2</v>
       </c>
       <c r="J9">
-        <v>143.80000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="K9">
-        <v>24.130857943403999</v>
+        <v>7.4017863166918101</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3481,10 +3481,10 @@
         <v>9.69735037263878E-2</v>
       </c>
       <c r="J10">
-        <v>97.183333333333294</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="K10">
-        <v>37.0054927973557</v>
+        <v>24.130857943403999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3516,10 +3516,10 @@
         <v>8.86828121480156E-2</v>
       </c>
       <c r="J11">
-        <v>129.19999999999999</v>
+        <v>97.183333333333294</v>
       </c>
       <c r="K11">
-        <v>10.110910368239701</v>
+        <v>37.0054927973557</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3551,10 +3551,10 @@
         <v>7.4617564566123895E-2</v>
       </c>
       <c r="J12">
-        <v>104.51666666666701</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="K12">
-        <v>13.011717882735001</v>
+        <v>10.110910368239701</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3586,10 +3586,10 @@
         <v>7.3877841283894893E-2</v>
       </c>
       <c r="J13">
-        <v>101.666666666667</v>
+        <v>104.51666666666701</v>
       </c>
       <c r="K13">
-        <v>7.4188643350986601</v>
+        <v>13.011717882735001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3621,10 +3621,10 @@
         <v>5.1615923988169998E-2</v>
       </c>
       <c r="J14">
-        <v>165.1</v>
+        <v>101.666666666667</v>
       </c>
       <c r="K14">
-        <v>4.5349864051521998</v>
+        <v>7.4188643350986601</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,10 +3656,10 @@
         <v>0.106746411558655</v>
       </c>
       <c r="J15">
-        <v>79.75</v>
+        <v>165.1</v>
       </c>
       <c r="K15">
-        <v>14.240816249696801</v>
+        <v>4.5349864051521998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3691,10 +3691,10 @@
         <v>5.6563249896642701E-2</v>
       </c>
       <c r="J16">
-        <v>115.683333333333</v>
+        <v>79.75</v>
       </c>
       <c r="K16">
-        <v>18.450567642424499</v>
+        <v>14.240816249696801</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3726,10 +3726,10 @@
         <v>0.12475332172355399</v>
       </c>
       <c r="J17">
-        <v>128.38333333333301</v>
+        <v>115.683333333333</v>
       </c>
       <c r="K17">
-        <v>7.0086911340441702</v>
+        <v>18.450567642424499</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3761,10 +3761,10 @@
         <v>7.8940631526247099E-2</v>
       </c>
       <c r="J18">
-        <v>127.216666666667</v>
+        <v>128.38333333333301</v>
       </c>
       <c r="K18">
-        <v>7.7088803440053599</v>
+        <v>7.0086911340441702</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3796,10 +3796,10 @@
         <v>7.5883391521368498E-2</v>
       </c>
       <c r="J19">
-        <v>129.01666666666699</v>
+        <v>127.216666666667</v>
       </c>
       <c r="K19">
-        <v>9.2415635676621992</v>
+        <v>7.7088803440053599</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,10 +3831,10 @@
         <v>0.10837382889507299</v>
       </c>
       <c r="J20">
-        <v>163.05000000000001</v>
+        <v>129.01666666666699</v>
       </c>
       <c r="K20">
-        <v>3.4268382423136101</v>
+        <v>9.2415635676621992</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3866,10 +3866,10 @@
         <v>9.2861550710241395E-2</v>
       </c>
       <c r="J21">
-        <v>125.166666666667</v>
+        <v>163.05000000000001</v>
       </c>
       <c r="K21">
-        <v>8.7936160716635303</v>
+        <v>3.4268382423136101</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3901,10 +3901,10 @@
         <v>8.5370411397977297E-2</v>
       </c>
       <c r="J22">
-        <v>126.916666666667</v>
+        <v>125.166666666667</v>
       </c>
       <c r="K22">
-        <v>31.6523979152498</v>
+        <v>8.7936160716635303</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3936,10 +3936,10 @@
         <v>9.1267267801604005E-2</v>
       </c>
       <c r="J23">
-        <v>104.133333333333</v>
+        <v>126.916666666667</v>
       </c>
       <c r="K23">
-        <v>9.05438683202539</v>
+        <v>31.6523979152498</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3971,10 +3971,10 @@
         <v>6.3118491336210794E-2</v>
       </c>
       <c r="J24">
-        <v>161.23333333333301</v>
+        <v>104.133333333333</v>
       </c>
       <c r="K24">
-        <v>6.4686117407916299</v>
+        <v>9.05438683202539</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4006,10 +4006,10 @@
         <v>8.9225692310120702E-2</v>
       </c>
       <c r="J25">
-        <v>102.116666666667</v>
+        <v>161.23333333333301</v>
       </c>
       <c r="K25">
-        <v>11.8236930573372</v>
+        <v>6.4686117407916299</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4041,10 +4041,10 @@
         <v>7.9047056064279697E-2</v>
       </c>
       <c r="J26">
-        <v>113.166666666667</v>
+        <v>102.116666666667</v>
       </c>
       <c r="K26">
-        <v>12.802497990714899</v>
+        <v>11.8236930573372</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4076,10 +4076,10 @@
         <v>7.8332541053375698E-2</v>
       </c>
       <c r="J27">
-        <v>110.583333333333</v>
+        <v>113.166666666667</v>
       </c>
       <c r="K27">
-        <v>12.110076581188901</v>
+        <v>12.802497990714899</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4111,10 +4111,10 @@
         <v>8.1523065387358401E-2</v>
       </c>
       <c r="J28">
-        <v>162.333333333333</v>
+        <v>110.583333333333</v>
       </c>
       <c r="K28">
-        <v>3.7356127020727201</v>
+        <v>12.110076581188901</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4146,10 +4146,10 @@
         <v>8.7461043472569805E-2</v>
       </c>
       <c r="J29">
-        <v>100.883333333333</v>
+        <v>162.333333333333</v>
       </c>
       <c r="K29">
-        <v>6.1205174996299796</v>
+        <v>3.7356127020727201</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4181,10 +4181,10 @@
         <v>6.5986908558453405E-2</v>
       </c>
       <c r="J30">
-        <v>148.6</v>
+        <v>100.883333333333</v>
       </c>
       <c r="K30">
-        <v>32.150177267086498</v>
+        <v>6.1205174996299796</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4216,10 +4216,10 @@
         <v>0.102569910409336</v>
       </c>
       <c r="J31">
-        <v>147.36666666666699</v>
+        <v>148.6</v>
       </c>
       <c r="K31">
-        <v>31.586827691552401</v>
+        <v>32.150177267086498</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4251,10 +4251,10 @@
         <v>6.5644739016969697E-2</v>
       </c>
       <c r="J32">
-        <v>162.38333333333301</v>
+        <v>147.36666666666699</v>
       </c>
       <c r="K32">
-        <v>4.7159723790779404</v>
+        <v>31.586827691552401</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4286,10 +4286,10 @@
         <v>0.116066779376732</v>
       </c>
       <c r="J33">
-        <v>120.883333333333</v>
+        <v>162.38333333333301</v>
       </c>
       <c r="K33">
-        <v>20.082956486606701</v>
+        <v>4.7159723790779404</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4321,10 +4321,10 @@
         <v>7.0311709728691399E-2</v>
       </c>
       <c r="J34">
-        <v>102.716666666667</v>
+        <v>120.883333333333</v>
       </c>
       <c r="K34">
-        <v>33.973614720473002</v>
+        <v>20.082956486606701</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,6 +4354,12 @@
       </c>
       <c r="I35">
         <v>9.7225012872900099E-2</v>
+      </c>
+      <c r="J35">
+        <v>102.716666666667</v>
+      </c>
+      <c r="K35">
+        <v>33.973614720473002</v>
       </c>
     </row>
   </sheetData>
@@ -4365,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
